--- a/宏观经济/eta/美元指数2_月度数据.xlsx
+++ b/宏观经济/eta/美元指数2_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>99.09999999999999</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="3">
@@ -471,7 +471,7 @@
         <v>98.59999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>99</v>
+        <v>99.40000000000001</v>
       </c>
     </row>
     <row r="4">
